--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3857753A-DF42-4935-857D-543F88AD404E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7FDFA-3C0F-46D3-BF02-7C382DC22623}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7FDFA-3C0F-46D3-BF02-7C382DC22623}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A320716A-9500-41B7-8342-326EEE4CBFCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3358DE96-2020-43EB-85FC-7E62B89FBB15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E210079-5052-4352-BB8B-BA1814DEBAD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E210079-5052-4352-BB8B-BA1814DEBAD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB3DCCE-7F8E-4393-BF87-7BB6953D27D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB3DCCE-7F8E-4393-BF87-7BB6953D27D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E5AEB-790F-4F3F-913F-ED2F6E3927D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E5AEB-790F-4F3F-913F-ED2F6E3927D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7EE3DB-B981-4061-8C09-B6C9173BD837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7EE3DB-B981-4061-8C09-B6C9173BD837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5A83A-AAEE-4188-AFB4-1BC544AFE206}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LightningAsset.xlsx
+++ b/LightningAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5A83A-AAEE-4188-AFB4-1BC544AFE206}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3EC0D9-312D-4D42-B178-FE81CD5625A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
